--- a/data/trans_dic/DCD-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05831369848114574</v>
+        <v>0.05698493124929598</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0779626300251159</v>
+        <v>0.07884991871004177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.203074664755497</v>
+        <v>0.2049364492673688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1659024945915678</v>
+        <v>0.1639060829071512</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1429182933996442</v>
+        <v>0.1424544881095951</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3472313350093439</v>
+        <v>0.3457306671378696</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1173803055869312</v>
+        <v>0.1192545827884035</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.118733313282044</v>
+        <v>0.1171223354726469</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2917162427197305</v>
+        <v>0.2950104251639586</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09056661787428681</v>
+        <v>0.09071626634415049</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1116298117482469</v>
+        <v>0.1147909427522572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2807018241710502</v>
+        <v>0.2858315451455722</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2129363386455498</v>
+        <v>0.2111323319972274</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1857011494872532</v>
+        <v>0.1862188730914995</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4152327893400059</v>
+        <v>0.4141338211079282</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1475742562571926</v>
+        <v>0.1490850646569142</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1483586928554499</v>
+        <v>0.1465211658471927</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3433347969181423</v>
+        <v>0.3454373715930267</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05204882249563957</v>
+        <v>0.05134554503871123</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.048344086069266</v>
+        <v>0.04889123548548911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1171706616336515</v>
+        <v>0.1175983069596205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1508574897081858</v>
+        <v>0.152608464316751</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1102142459970139</v>
+        <v>0.1096875041052276</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2578605235761858</v>
+        <v>0.2569262736539891</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.108656130488868</v>
+        <v>0.1095478674070758</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08472622553609876</v>
+        <v>0.08529144985092374</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1992637670204655</v>
+        <v>0.1984367891841223</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08568676473864417</v>
+        <v>0.08464097786066666</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08188914986680555</v>
+        <v>0.08071561195855388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1600389240684223</v>
+        <v>0.1598911773885137</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1999224718439573</v>
+        <v>0.2003924557881513</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1550616780997187</v>
+        <v>0.1535763067525787</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3029886611898371</v>
+        <v>0.3039050814797292</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.137487350237349</v>
+        <v>0.1397710224529033</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1144753980869798</v>
+        <v>0.1128750181406051</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2317284753055484</v>
+        <v>0.2318162175980646</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04868919199212139</v>
+        <v>0.04750133042243369</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02724049785177985</v>
+        <v>0.02643499192164095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07191040353896418</v>
+        <v>0.07165590356206676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1045076091755086</v>
+        <v>0.1026122575979913</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06994546833181554</v>
+        <v>0.07136872569013296</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1901973108197086</v>
+        <v>0.1934391512308686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08010598581957287</v>
+        <v>0.08007416243871435</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05278150025783696</v>
+        <v>0.05322942922650466</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.135405727553006</v>
+        <v>0.1359874460253979</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08178425914600886</v>
+        <v>0.08286794175896972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05493877279442513</v>
+        <v>0.05528663903723662</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1045702651109544</v>
+        <v>0.1053967260985029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1488144174582921</v>
+        <v>0.1482420083224144</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1134895108423391</v>
+        <v>0.1139531308260583</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2341762304784333</v>
+        <v>0.2375311694702329</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.107888270535612</v>
+        <v>0.1103253740444195</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07857302283470766</v>
+        <v>0.07800300222545437</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1647332112638659</v>
+        <v>0.1648491813105395</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.07858367735744437</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.1700832042048605</v>
+        <v>0.1700832042048604</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03939035646526925</v>
+        <v>0.03848193990163837</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0399738769252277</v>
+        <v>0.038911805041655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0885254466420802</v>
+        <v>0.0907899672853867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1028438744655224</v>
+        <v>0.1028568492196091</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07254682794931766</v>
+        <v>0.07214352720268143</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.209518086984889</v>
+        <v>0.2123616250241947</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07596785293439871</v>
+        <v>0.07493159939095398</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0617976240351344</v>
+        <v>0.06148786792775461</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1545490877086774</v>
+        <v>0.1533206828872485</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08331552446841244</v>
+        <v>0.08232914313258662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0856464730695226</v>
+        <v>0.08296507378037796</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1290036727722093</v>
+        <v>0.1304793330424846</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1712518252990391</v>
+        <v>0.1768997891541378</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1314115931285174</v>
+        <v>0.1305230924725319</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2623975687606044</v>
+        <v>0.2638257557721668</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.116057099176783</v>
+        <v>0.1155724241397691</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1002137116609347</v>
+        <v>0.09575201494831535</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1890925612115514</v>
+        <v>0.1861201677830628</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.1294597698269284</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.266836281833648</v>
+        <v>0.2668362818336479</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1150817991972232</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05851096768971339</v>
+        <v>0.05814779360545889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05902278949612452</v>
+        <v>0.05882189929944143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1197457684403254</v>
+        <v>0.1180879576784704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1487479757014616</v>
+        <v>0.1498844133869306</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1179416240448302</v>
+        <v>0.1177929409618172</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.255161043173498</v>
+        <v>0.2532101086534828</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1072391769020725</v>
+        <v>0.1073117524951056</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09164969746527728</v>
+        <v>0.09169843120174687</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1907393389707022</v>
+        <v>0.1921610382681844</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07637810950660937</v>
+        <v>0.07616559947696327</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07591963314662269</v>
+        <v>0.07642598897161294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1412533530479161</v>
+        <v>0.1405495099205874</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1735959080769409</v>
+        <v>0.1737577961376854</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1411934911456926</v>
+        <v>0.1419665008534189</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2792322149985443</v>
+        <v>0.2785574622069188</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1237910237650878</v>
+        <v>0.1230808316311323</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1072484112527664</v>
+        <v>0.1067930898422178</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.208810468326231</v>
+        <v>0.2090300131388591</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>60876</v>
+        <v>59489</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>87942</v>
+        <v>88942</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>101281</v>
+        <v>102210</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>185799</v>
+        <v>183563</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>180014</v>
+        <v>179430</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>216527</v>
+        <v>215591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>253995</v>
+        <v>258051</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>283483</v>
+        <v>279636</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>327399</v>
+        <v>331096</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>94546</v>
+        <v>94702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>125918</v>
+        <v>129484</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>139997</v>
+        <v>142555</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>238473</v>
+        <v>236453</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>233902</v>
+        <v>234554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>258931</v>
+        <v>258246</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>319330</v>
+        <v>322600</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>354215</v>
+        <v>349828</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>385332</v>
+        <v>387691</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>50855</v>
+        <v>50168</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43936</v>
+        <v>44434</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>112500</v>
+        <v>112910</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>165078</v>
+        <v>166994</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>110928</v>
+        <v>110398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>287733</v>
+        <v>286691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>225063</v>
+        <v>226910</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>162276</v>
+        <v>163359</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>413669</v>
+        <v>411952</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>83722</v>
+        <v>82700</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74423</v>
+        <v>73356</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>153659</v>
+        <v>153517</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>218768</v>
+        <v>219282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>156066</v>
+        <v>154571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>338090</v>
+        <v>339112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>284782</v>
+        <v>289513</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>219255</v>
+        <v>216190</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>481065</v>
+        <v>481247</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>43096</v>
+        <v>42044</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22440</v>
+        <v>21776</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>75253</v>
+        <v>74986</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>91527</v>
+        <v>89867</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>53932</v>
+        <v>55029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>199259</v>
+        <v>202655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>141060</v>
+        <v>141003</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>84177</v>
+        <v>84891</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>283556</v>
+        <v>284774</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72388</v>
+        <v>73348</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45256</v>
+        <v>45543</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>109431</v>
+        <v>110295</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>130331</v>
+        <v>129830</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>87507</v>
+        <v>87865</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>245333</v>
+        <v>248848</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>189982</v>
+        <v>194273</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>125310</v>
+        <v>124401</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>344971</v>
+        <v>345214</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19814</v>
+        <v>19357</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20255</v>
+        <v>19717</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>86395</v>
+        <v>88605</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>46561</v>
+        <v>46567</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>35526</v>
+        <v>35329</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>190734</v>
+        <v>193322</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>72607</v>
+        <v>71616</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61575</v>
+        <v>61266</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>291522</v>
+        <v>289205</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41910</v>
+        <v>41413</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43397</v>
+        <v>42038</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>125898</v>
+        <v>127339</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>77532</v>
+        <v>80089</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>64352</v>
+        <v>63917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>238872</v>
+        <v>240172</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>110923</v>
+        <v>110459</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>99853</v>
+        <v>95407</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>356680</v>
+        <v>351074</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>199472</v>
+        <v>198234</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>198746</v>
+        <v>198070</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>416869</v>
+        <v>411098</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>526973</v>
+        <v>530999</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>415956</v>
+        <v>415431</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>943437</v>
+        <v>936223</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>745512</v>
+        <v>746017</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>631840</v>
+        <v>632176</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1369261</v>
+        <v>1379467</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>260384</v>
+        <v>259660</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>255643</v>
+        <v>257348</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>491743</v>
+        <v>489293</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>615002</v>
+        <v>615576</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>497960</v>
+        <v>500686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1032438</v>
+        <v>1029943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>860579</v>
+        <v>855642</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>739379</v>
+        <v>736240</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1498988</v>
+        <v>1500564</v>
       </c>
     </row>
     <row r="24">
